--- a/StockingProblemProject/Testes/Problema4/testes_recombinacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema4/testes_recombinacao/statistic_average_fitness_avaliado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema4\testes_recombinacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema4\testes_recombinacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6014FA8-5696-4E24-B4BD-4FB6B0957E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E845233-959B-4949-AF50-DDBB0B1589F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10212" windowHeight="9264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="14">
   <si>
     <t>Population size:</t>
   </si>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -204,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,6 +390,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -551,9 +557,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -610,6 +620,2282 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness_avali!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>statistic_average_fitness_avali!$D$2:$E$28</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="27"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0,1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0,2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0,3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0,4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0,5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0,6</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0,7</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0,8</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0,9</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0,1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0,2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0,3</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0,4</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0,5</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0,6</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0,7</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0,8</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0,9</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0,1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0,2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0,3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0,4</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0,5</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0,6</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0,7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0,8</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0,9</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness_avali!$I$2:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>251.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>248.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>251.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251.94</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252.94</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>258.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>251.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252.78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255.54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>258.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>261.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262.76</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C789-4BE5-BAEC-947F899885BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="553000784"/>
+        <c:axId val="553000144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553000784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553000144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553000144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553000784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness_avali!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>statistic_average_fitness_avali!$D$31:$E$57</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="27"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0,7</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0,8</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0,6</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0,9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0,4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0,5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0,2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0,2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0,3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0,1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0,3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0,1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0,2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0,3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0,1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0,4</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0,4</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0,5</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0,5</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0,6</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0,6</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0,7</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0,8</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>0,9</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>0,7</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>0,9</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>0,8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>PMX</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>OX</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>CX2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness_avali!$I$31:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>246.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>251.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>251.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>251.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252.78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>254.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>255.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256.24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>258.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>258.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>259.36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>261.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>262.44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>262.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F97-4C8C-8EE1-A357B68D03AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="557395960"/>
+        <c:axId val="557394360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="557395960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557394360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557394360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557395960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119744</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D600BF2F-A1EC-4B74-B0CF-437C37597D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEA3C5E-5935-40F4-B03B-BA1AC7CE9DCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,20 +3194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="1.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -960,7 +3246,7 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
@@ -979,7 +3265,7 @@
         <v>4.0263631232167798</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -989,9 +3275,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3">
         <v>0.2</v>
       </c>
@@ -1008,7 +3292,7 @@
         <v>4.75482912416419</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1018,9 +3302,7 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4">
         <v>0.3</v>
       </c>
@@ -1037,7 +3319,7 @@
         <v>5.0473359309639703</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1047,9 +3329,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5">
         <v>0.4</v>
       </c>
@@ -1066,7 +3346,7 @@
         <v>4.3525165134666599</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>100</v>
       </c>
@@ -1076,9 +3356,7 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6">
         <v>0.5</v>
       </c>
@@ -1095,7 +3373,7 @@
         <v>4.3016740927225001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1105,9 +3383,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7">
         <v>0.6</v>
       </c>
@@ -1124,7 +3400,7 @@
         <v>4.6322348817822201</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -1134,9 +3410,7 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8">
         <v>0.7</v>
       </c>
@@ -1153,7 +3427,7 @@
         <v>5.1691391933280304</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -1163,9 +3437,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9">
         <v>0.8</v>
       </c>
@@ -1182,7 +3454,7 @@
         <v>5.5163756217284501</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -1192,9 +3464,7 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10">
         <v>0.9</v>
       </c>
@@ -1211,7 +3481,7 @@
         <v>6.24631091124993</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -1221,7 +3491,7 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11">
@@ -1240,7 +3510,7 @@
         <v>5.7026309717533001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1250,9 +3520,7 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12">
         <v>0.2</v>
       </c>
@@ -1269,7 +3537,7 @@
         <v>4.3894874416040803</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>100</v>
       </c>
@@ -1279,9 +3547,7 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13">
         <v>0.3</v>
       </c>
@@ -1298,7 +3564,7 @@
         <v>4.6836310700139396</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>100</v>
       </c>
@@ -1308,9 +3574,7 @@
       <c r="C14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14">
         <v>0.4</v>
       </c>
@@ -1327,7 +3591,7 @@
         <v>3.8956899260593101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>100</v>
       </c>
@@ -1337,9 +3601,7 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
+      <c r="D15" s="2"/>
       <c r="E15">
         <v>0.5</v>
       </c>
@@ -1356,7 +3618,7 @@
         <v>4.4508426168535697</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1366,9 +3628,7 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16">
         <v>0.6</v>
       </c>
@@ -1385,7 +3645,7 @@
         <v>4.9094195176211999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>100</v>
       </c>
@@ -1395,9 +3655,7 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17">
         <v>0.7</v>
       </c>
@@ -1414,7 +3672,7 @@
         <v>4.2379240200834101</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1424,9 +3682,7 @@
       <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18">
         <v>0.8</v>
       </c>
@@ -1443,7 +3699,7 @@
         <v>4.14613072635197</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1453,9 +3709,7 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19">
         <v>0.9</v>
       </c>
@@ -1472,7 +3726,7 @@
         <v>3.6551333764994101</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1482,7 +3736,7 @@
       <c r="C20" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E20">
@@ -1501,7 +3755,7 @@
         <v>4.3497126341863002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>100</v>
       </c>
@@ -1511,9 +3765,7 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21">
         <v>0.2</v>
       </c>
@@ -1530,7 +3782,7 @@
         <v>4.8497422611928496</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1540,9 +3792,7 @@
       <c r="C22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22">
         <v>0.3</v>
       </c>
@@ -1559,7 +3809,7 @@
         <v>4.8010415536631204</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1569,9 +3819,7 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23">
         <v>0.4</v>
       </c>
@@ -1588,7 +3836,7 @@
         <v>5.1001568603328202</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>100</v>
       </c>
@@ -1598,9 +3846,7 @@
       <c r="C24" t="s">
         <v>9</v>
       </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24">
         <v>0.5</v>
       </c>
@@ -1617,7 +3863,7 @@
         <v>4.7464091690455801</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>100</v>
       </c>
@@ -1627,9 +3873,7 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
-        <v>13</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25">
         <v>0.6</v>
       </c>
@@ -1646,7 +3890,7 @@
         <v>4.4373415464667501</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -1656,9 +3900,7 @@
       <c r="C26" t="s">
         <v>9</v>
       </c>
-      <c r="D26" t="s">
-        <v>13</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26">
         <v>0.7</v>
       </c>
@@ -1675,7 +3917,7 @@
         <v>3.6064386865715599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>100</v>
       </c>
@@ -1685,9 +3927,7 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27">
         <v>0.8</v>
       </c>
@@ -1704,7 +3944,7 @@
         <v>3.2034980880281401</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>100</v>
       </c>
@@ -1714,9 +3954,7 @@
       <c r="C28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28">
         <v>0.9</v>
       </c>
@@ -1733,8 +3971,8 @@
         <v>3.0539155194602201</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="6.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1763,36 +4001,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>100</v>
-      </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>100</v>
+      </c>
+      <c r="B31" s="3">
+        <v>200</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.7</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31">
-        <v>0.4</v>
-      </c>
-      <c r="I31">
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
         <v>246.6</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>5.1691391933280304</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>100</v>
       </c>
@@ -1821,7 +4060,7 @@
         <v>5.5163756217284501</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>100</v>
       </c>
@@ -1850,7 +4089,7 @@
         <v>4.6322348817822201</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>100</v>
       </c>
@@ -1879,7 +4118,7 @@
         <v>6.24631091124993</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>100</v>
       </c>
@@ -1908,7 +4147,7 @@
         <v>4.3525165134666599</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>100</v>
       </c>
@@ -1937,7 +4176,7 @@
         <v>4.3016740927225001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>100</v>
       </c>
@@ -1966,7 +4205,7 @@
         <v>4.75482912416419</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>100</v>
       </c>
@@ -1995,7 +4234,7 @@
         <v>4.8497422611928496</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>100</v>
       </c>
@@ -2024,7 +4263,7 @@
         <v>5.0473359309639703</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>100</v>
       </c>
@@ -2053,7 +4292,7 @@
         <v>4.0263631232167798</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>100</v>
       </c>
@@ -2082,7 +4321,7 @@
         <v>4.8010415536631204</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>100</v>
       </c>
@@ -2111,7 +4350,7 @@
         <v>5.7026309717533001</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>100</v>
       </c>
@@ -2140,7 +4379,7 @@
         <v>4.3894874416040803</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>100</v>
       </c>
@@ -2169,7 +4408,7 @@
         <v>4.6836310700139396</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>100</v>
       </c>
@@ -2198,7 +4437,7 @@
         <v>4.3497126341863002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>100</v>
       </c>
@@ -2227,7 +4466,7 @@
         <v>5.1001568603328202</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>100</v>
       </c>
@@ -2256,7 +4495,7 @@
         <v>3.8956899260593101</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>100</v>
       </c>
@@ -2285,7 +4524,7 @@
         <v>4.4508426168535697</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>100</v>
       </c>
@@ -2314,7 +4553,7 @@
         <v>4.7464091690455801</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>100</v>
       </c>
@@ -2343,7 +4582,7 @@
         <v>4.9094195176211999</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>100</v>
       </c>
@@ -2372,7 +4611,7 @@
         <v>4.4373415464667501</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>100</v>
       </c>
@@ -2401,7 +4640,7 @@
         <v>4.2379240200834101</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>100</v>
       </c>
@@ -2430,7 +4669,7 @@
         <v>4.14613072635197</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>100</v>
       </c>
@@ -2459,7 +4698,7 @@
         <v>3.6551333764994101</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>100</v>
       </c>
@@ -2488,7 +4727,7 @@
         <v>3.6064386865715599</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>100</v>
       </c>
@@ -2517,7 +4756,7 @@
         <v>3.0539155194602201</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>100</v>
       </c>
@@ -2550,6 +4789,12 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J57">
     <sortCondition ref="I31:I57"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="D11:D19"/>
+    <mergeCell ref="D20:D28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>